--- a/ParserTest/ExcelAndKeys/Result.xlsx
+++ b/ParserTest/ExcelAndKeys/Result.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\source\repos\ParserTest\ParserTest\ExcelAndKeys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F7A094E-424D-4041-B9D4-16E198266815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D121F79C-F87D-44A2-A9FE-D4BC7A476C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1548" yWindow="1104" windowWidth="17280" windowHeight="8964" xr2:uid="{A98FFC6A-0A7F-4E65-A636-3003CA02A494}"/>
   </bookViews>
   <sheets>
-    <sheet name="Книги" sheetId="35" r:id="rId1"/>
-    <sheet name="Телефоны" sheetId="34" r:id="rId2"/>
-    <sheet name="Настолки" sheetId="33" r:id="rId3"/>
+    <sheet name="Книги" sheetId="41" r:id="rId1"/>
+    <sheet name="Телефоны" sheetId="40" r:id="rId2"/>
+    <sheet name="Настолки" sheetId="39" r:id="rId3"/>
     <sheet name="Игрушки" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -239,9 +239,6 @@
     <t>Genzai</t>
   </si>
   <si>
-    <t>Конструктор 284 элемента / 280 деталей / wedo</t>
-  </si>
-  <si>
     <t>Robo Master</t>
   </si>
   <si>
@@ -275,9 +272,6 @@
     <t>Bauer.</t>
   </si>
   <si>
-    <t>Игрушка антистресс мама хаги ваги длинные ноги / пи джей собака хаги ваги</t>
-  </si>
-  <si>
     <t>Настольная игра Попробуй произнести - Скажи, если сможешь с расширителем рта</t>
   </si>
   <si>
@@ -1286,9 +1280,6 @@
     <t>Афанасьева Английский язык 3 класс. Рабочая тетрадь Rainbow English</t>
   </si>
   <si>
-    <t>Тренажер по чистописанию 1 класс. Добукварный период. Часть 1. Жиренко О.Е.</t>
-  </si>
-  <si>
     <t>Правила жизни Лето 2022</t>
   </si>
   <si>
@@ -1461,6 +1452,15 @@
   </si>
   <si>
     <t>Галерея Подарков</t>
+  </si>
+  <si>
+    <t>Конструктор 284 элемента / 280 деталей</t>
+  </si>
+  <si>
+    <t>Игрушка антистресс мама хаги ваги длинные ноги / папа хаги ваги / пи джей собака хаги ваги</t>
+  </si>
+  <si>
+    <t>ВПР. Русский язык. Математика. Окружающий мир. Большой сборник тренировочных вариантов заданий</t>
   </si>
   <si>
     <t>География. 9 класс. Атлас. РГО</t>
@@ -1815,7 +1815,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{568D2DA5-E417-458B-A4A5-9829128D1EB5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{883C8364-9F4C-4D76-83E4-8C718E71E68E}">
   <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1848,16 +1848,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C2">
         <v>16008705</v>
       </c>
       <c r="D2">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="E2">
         <v>986</v>
@@ -1865,10 +1865,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C3">
         <v>30004903</v>
@@ -1882,10 +1882,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C4">
         <v>9397113</v>
@@ -1899,10 +1899,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B5" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C5">
         <v>59505510</v>
@@ -1916,10 +1916,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C6">
         <v>28852807</v>
@@ -1933,10 +1933,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B7" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C7">
         <v>15355231</v>
@@ -1953,41 +1953,41 @@
         <v>355</v>
       </c>
       <c r="B8" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="C8">
-        <v>6828677</v>
+        <v>32575665</v>
       </c>
       <c r="D8">
-        <v>1363</v>
+        <v>121</v>
       </c>
       <c r="E8">
-        <v>677</v>
+        <v>931</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B9" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="C9">
-        <v>32575665</v>
+        <v>6828677</v>
       </c>
       <c r="D9">
-        <v>121</v>
+        <v>1363</v>
       </c>
       <c r="E9">
-        <v>931</v>
+        <v>677</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B10" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C10">
         <v>33877634</v>
@@ -2001,10 +2001,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B11" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C11">
         <v>59505485</v>
@@ -2018,10 +2018,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B12" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C12">
         <v>76105321</v>
@@ -2035,10 +2035,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B13" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C13">
         <v>8712657</v>
@@ -2052,10 +2052,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B14" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C14">
         <v>34341782</v>
@@ -2069,10 +2069,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B15" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C15">
         <v>70117598</v>
@@ -2086,10 +2086,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B16" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C16">
         <v>111637525</v>
@@ -2103,10 +2103,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B17" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C17">
         <v>7614422</v>
@@ -2120,10 +2120,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B18" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C18">
         <v>10866530</v>
@@ -2137,10 +2137,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B19" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C19">
         <v>28221286</v>
@@ -2154,10 +2154,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B20" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C20">
         <v>27306266</v>
@@ -2171,10 +2171,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B21" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C21">
         <v>42056968</v>
@@ -2188,44 +2188,44 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B22" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C22">
-        <v>10249656</v>
+        <v>76105316</v>
       </c>
       <c r="D22">
-        <v>1276</v>
+        <v>165</v>
       </c>
       <c r="E22">
-        <v>644</v>
+        <v>529</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B23" t="s">
         <v>361</v>
       </c>
       <c r="C23">
-        <v>76105316</v>
+        <v>10249656</v>
       </c>
       <c r="D23">
-        <v>165</v>
+        <v>1276</v>
       </c>
       <c r="E23">
-        <v>529</v>
+        <v>644</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B24" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C24">
         <v>9860404</v>
@@ -2239,10 +2239,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B25" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C25">
         <v>73189565</v>
@@ -2256,10 +2256,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B26" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C26">
         <v>6891205</v>
@@ -2273,44 +2273,44 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B27" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C27">
-        <v>28852792</v>
+        <v>36013297</v>
       </c>
       <c r="D27">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="E27">
-        <v>762</v>
+        <v>5924</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B28" t="s">
         <v>346</v>
       </c>
       <c r="C28">
-        <v>36013297</v>
+        <v>28852792</v>
       </c>
       <c r="D28">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="E28">
-        <v>5924</v>
+        <v>762</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B29" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C29">
         <v>35932313</v>
@@ -2324,10 +2324,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B30" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C30">
         <v>55251618</v>
@@ -2341,10 +2341,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B31" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C31">
         <v>77553926</v>
@@ -2358,299 +2358,299 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>387</v>
+        <v>474</v>
       </c>
       <c r="B32" t="s">
-        <v>361</v>
+        <v>398</v>
       </c>
       <c r="C32">
-        <v>76105320</v>
+        <v>32769316</v>
       </c>
       <c r="D32">
-        <v>141</v>
+        <v>87</v>
       </c>
       <c r="E32">
-        <v>529</v>
+        <v>584</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B33" t="s">
-        <v>389</v>
+        <v>359</v>
       </c>
       <c r="C33">
-        <v>44226957</v>
+        <v>76105320</v>
       </c>
       <c r="D33">
-        <v>193</v>
+        <v>142</v>
       </c>
       <c r="E33">
-        <v>600</v>
+        <v>529</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B34" t="s">
-        <v>361</v>
+        <v>387</v>
       </c>
       <c r="C34">
-        <v>76105317</v>
+        <v>44226957</v>
       </c>
       <c r="D34">
-        <v>124</v>
+        <v>193</v>
       </c>
       <c r="E34">
-        <v>529</v>
+        <v>600</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B35" t="s">
-        <v>392</v>
+        <v>359</v>
       </c>
       <c r="C35">
-        <v>55192387</v>
+        <v>76105317</v>
       </c>
       <c r="D35">
-        <v>22</v>
+        <v>124</v>
       </c>
       <c r="E35">
-        <v>11828</v>
+        <v>529</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B36" t="s">
-        <v>361</v>
+        <v>390</v>
       </c>
       <c r="C36">
-        <v>76105318</v>
+        <v>55192387</v>
       </c>
       <c r="D36">
-        <v>179</v>
+        <v>22</v>
       </c>
       <c r="E36">
-        <v>529</v>
+        <v>11828</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B37" t="s">
-        <v>395</v>
+        <v>359</v>
       </c>
       <c r="C37">
-        <v>25545313</v>
+        <v>76105318</v>
       </c>
       <c r="D37">
-        <v>57</v>
+        <v>179</v>
       </c>
       <c r="E37">
-        <v>22027</v>
+        <v>529</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B38" t="s">
-        <v>350</v>
+        <v>393</v>
       </c>
       <c r="C38">
-        <v>7396866</v>
+        <v>25545313</v>
       </c>
       <c r="D38">
-        <v>601</v>
+        <v>57</v>
       </c>
       <c r="E38">
-        <v>853</v>
+        <v>22027</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B39" t="s">
-        <v>372</v>
+        <v>348</v>
       </c>
       <c r="C39">
-        <v>42050483</v>
+        <v>7396866</v>
       </c>
       <c r="D39">
-        <v>156</v>
+        <v>601</v>
       </c>
       <c r="E39">
-        <v>485</v>
+        <v>853</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B40" t="s">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="C40">
-        <v>7352724</v>
+        <v>42050483</v>
       </c>
       <c r="D40">
-        <v>689</v>
+        <v>156</v>
       </c>
       <c r="E40">
-        <v>453</v>
+        <v>485</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B41" t="s">
-        <v>400</v>
+        <v>348</v>
       </c>
       <c r="C41">
-        <v>2281454</v>
+        <v>7352724</v>
       </c>
       <c r="D41">
-        <v>1752</v>
+        <v>689</v>
       </c>
       <c r="E41">
-        <v>385</v>
+        <v>453</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B42" t="s">
-        <v>346</v>
+        <v>398</v>
       </c>
       <c r="C42">
-        <v>2940433</v>
+        <v>2281454</v>
       </c>
       <c r="D42">
-        <v>445</v>
+        <v>1752</v>
       </c>
       <c r="E42">
-        <v>478</v>
+        <v>385</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B43" t="s">
-        <v>372</v>
+        <v>344</v>
       </c>
       <c r="C43">
-        <v>59505499</v>
+        <v>2940433</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>445</v>
       </c>
       <c r="E43">
-        <v>1013</v>
+        <v>478</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B44" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="C44">
-        <v>9890943</v>
+        <v>59505499</v>
       </c>
       <c r="D44">
-        <v>245</v>
+        <v>1</v>
       </c>
       <c r="E44">
-        <v>520</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B45" t="s">
-        <v>405</v>
+        <v>361</v>
       </c>
       <c r="C45">
-        <v>14859000</v>
+        <v>9890943</v>
       </c>
       <c r="D45">
-        <v>149</v>
+        <v>245</v>
       </c>
       <c r="E45">
-        <v>1099</v>
+        <v>520</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B46" t="s">
-        <v>346</v>
+        <v>403</v>
       </c>
       <c r="C46">
-        <v>4825592</v>
+        <v>14859000</v>
       </c>
       <c r="D46">
-        <v>42</v>
+        <v>149</v>
       </c>
       <c r="E46">
-        <v>634</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B47" t="s">
-        <v>408</v>
+        <v>344</v>
       </c>
       <c r="C47">
-        <v>8511605</v>
+        <v>4825592</v>
       </c>
       <c r="D47">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E47">
-        <v>6946</v>
+        <v>634</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B48" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C48">
-        <v>12731326</v>
+        <v>8511605</v>
       </c>
       <c r="D48">
-        <v>729</v>
+        <v>50</v>
       </c>
       <c r="E48">
-        <v>1171</v>
+        <v>6946</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B49" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C49">
         <v>6552539</v>
@@ -2664,78 +2664,78 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="B50" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="C50">
-        <v>77283480</v>
+        <v>12731326</v>
       </c>
       <c r="D50">
-        <v>21</v>
+        <v>729</v>
       </c>
       <c r="E50">
-        <v>765</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B51" t="s">
-        <v>372</v>
+        <v>411</v>
       </c>
       <c r="C51">
-        <v>43106314</v>
+        <v>77283480</v>
       </c>
       <c r="D51">
         <v>21</v>
       </c>
       <c r="E51">
-        <v>330</v>
+        <v>765</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B52" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="C52">
-        <v>53863511</v>
+        <v>43106314</v>
       </c>
       <c r="D52">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="E52">
-        <v>637</v>
+        <v>330</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B53" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="C53">
-        <v>18676574</v>
+        <v>53863511</v>
       </c>
       <c r="D53">
-        <v>247</v>
+        <v>47</v>
       </c>
       <c r="E53">
-        <v>373</v>
+        <v>637</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B54" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C54">
         <v>113497572</v>
@@ -2749,10 +2749,10 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B55" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C55">
         <v>113150904</v>
@@ -2766,10 +2766,10 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B56" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C56">
         <v>28221307</v>
@@ -2783,10 +2783,10 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B57" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C57">
         <v>28853096</v>
@@ -2800,10 +2800,10 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B58" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C58">
         <v>74516131</v>
@@ -2817,10 +2817,10 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B59" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C59">
         <v>7335363</v>
@@ -2834,10 +2834,10 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B60" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C60">
         <v>26135355</v>
@@ -2851,10 +2851,10 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B61" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C61">
         <v>10444346</v>
@@ -2868,10 +2868,10 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B62" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C62">
         <v>15181304</v>
@@ -2885,10 +2885,10 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B63" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C63">
         <v>42352937</v>
@@ -2902,44 +2902,44 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B64" t="s">
-        <v>384</v>
+        <v>431</v>
       </c>
       <c r="C64">
-        <v>57934272</v>
+        <v>74407733</v>
       </c>
       <c r="D64">
-        <v>345</v>
+        <v>38</v>
       </c>
       <c r="E64">
-        <v>1283</v>
+        <v>4588</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B65" t="s">
-        <v>434</v>
+        <v>382</v>
       </c>
       <c r="C65">
-        <v>74407733</v>
+        <v>57934272</v>
       </c>
       <c r="D65">
-        <v>38</v>
+        <v>345</v>
       </c>
       <c r="E65">
-        <v>4588</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B66" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C66">
         <v>7821787</v>
@@ -2953,10 +2953,10 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B67" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C67">
         <v>28852782</v>
@@ -2970,10 +2970,10 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B68" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C68">
         <v>5890117</v>
@@ -2987,10 +2987,10 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B69" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C69">
         <v>35794870</v>
@@ -3004,10 +3004,10 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B70" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C70">
         <v>7686267</v>
@@ -3021,10 +3021,10 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B71" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C71">
         <v>78776589</v>
@@ -3038,16 +3038,16 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B72" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C72">
         <v>10585626</v>
       </c>
       <c r="D72">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E72">
         <v>584</v>
@@ -3055,112 +3055,112 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B73" t="s">
-        <v>400</v>
+        <v>448</v>
       </c>
       <c r="C73">
-        <v>12235542</v>
+        <v>16182669</v>
       </c>
       <c r="D73">
-        <v>305</v>
+        <v>185</v>
       </c>
       <c r="E73">
-        <v>448</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B74" t="s">
-        <v>356</v>
+        <v>398</v>
       </c>
       <c r="C74">
-        <v>15214843</v>
+        <v>12235542</v>
       </c>
       <c r="D74">
-        <v>117</v>
+        <v>305</v>
       </c>
       <c r="E74">
-        <v>723</v>
+        <v>448</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B75" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="C75">
-        <v>8466527</v>
+        <v>15214843</v>
       </c>
       <c r="D75">
-        <v>560</v>
+        <v>117</v>
       </c>
       <c r="E75">
-        <v>363</v>
+        <v>723</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B76" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
       <c r="C76">
-        <v>3104828</v>
+        <v>8466527</v>
       </c>
       <c r="D76">
-        <v>298</v>
+        <v>560</v>
       </c>
       <c r="E76">
-        <v>636</v>
+        <v>363</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B77" t="s">
-        <v>348</v>
+        <v>398</v>
       </c>
       <c r="C77">
-        <v>12981964</v>
+        <v>3104828</v>
       </c>
       <c r="D77">
-        <v>34</v>
+        <v>298</v>
       </c>
       <c r="E77">
-        <v>460</v>
+        <v>636</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B78" t="s">
-        <v>451</v>
+        <v>346</v>
       </c>
       <c r="C78">
-        <v>16182669</v>
+        <v>12981964</v>
       </c>
       <c r="D78">
-        <v>185</v>
+        <v>34</v>
       </c>
       <c r="E78">
-        <v>2300</v>
+        <v>460</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B79" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C79">
         <v>28221244</v>
@@ -3174,10 +3174,10 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B80" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C80">
         <v>47906871</v>
@@ -3191,10 +3191,10 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B81" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C81">
         <v>25544538</v>
@@ -3208,10 +3208,10 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B82" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C82">
         <v>6828673</v>
@@ -3225,10 +3225,10 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B83" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C83">
         <v>7821832</v>
@@ -3242,10 +3242,10 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B84" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C84">
         <v>83783478</v>
@@ -3259,36 +3259,36 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
+        <v>457</v>
+      </c>
+      <c r="B85" t="s">
         <v>458</v>
       </c>
-      <c r="B85" t="s">
-        <v>400</v>
-      </c>
       <c r="C85">
-        <v>34869107</v>
+        <v>28263431</v>
       </c>
       <c r="D85">
-        <v>258</v>
+        <v>19</v>
       </c>
       <c r="E85">
-        <v>358</v>
+        <v>646</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="B86" t="s">
-        <v>372</v>
+        <v>398</v>
       </c>
       <c r="C86">
-        <v>30527477</v>
+        <v>34869107</v>
       </c>
       <c r="D86">
-        <v>98</v>
+        <v>258</v>
       </c>
       <c r="E86">
-        <v>485</v>
+        <v>358</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
@@ -3296,58 +3296,58 @@
         <v>460</v>
       </c>
       <c r="B87" t="s">
-        <v>461</v>
+        <v>398</v>
       </c>
       <c r="C87">
-        <v>28263431</v>
+        <v>8468782</v>
       </c>
       <c r="D87">
-        <v>18</v>
+        <v>323</v>
       </c>
       <c r="E87">
-        <v>646</v>
+        <v>448</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="B88" t="s">
-        <v>348</v>
+        <v>370</v>
       </c>
       <c r="C88">
-        <v>28852786</v>
+        <v>30527477</v>
       </c>
       <c r="D88">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="E88">
-        <v>537</v>
+        <v>485</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B89" t="s">
-        <v>400</v>
+        <v>346</v>
       </c>
       <c r="C89">
-        <v>8468782</v>
+        <v>28852786</v>
       </c>
       <c r="D89">
-        <v>323</v>
+        <v>29</v>
       </c>
       <c r="E89">
-        <v>448</v>
+        <v>537</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B90" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C90">
         <v>8201248</v>
@@ -3361,129 +3361,129 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B91" t="s">
-        <v>377</v>
+        <v>344</v>
       </c>
       <c r="C91">
-        <v>7520873</v>
+        <v>1993675</v>
       </c>
       <c r="D91">
-        <v>181</v>
+        <v>384</v>
       </c>
       <c r="E91">
-        <v>530</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B92" t="s">
-        <v>429</v>
+        <v>375</v>
       </c>
       <c r="C92">
-        <v>28885535</v>
+        <v>7520873</v>
       </c>
       <c r="D92">
-        <v>121</v>
+        <v>181</v>
       </c>
       <c r="E92">
-        <v>2800</v>
+        <v>530</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="B93" t="s">
-        <v>410</v>
+        <v>426</v>
       </c>
       <c r="C93">
-        <v>12731350</v>
+        <v>28885535</v>
       </c>
       <c r="D93">
-        <v>353</v>
+        <v>121</v>
       </c>
       <c r="E93">
-        <v>1171</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B94" t="s">
-        <v>346</v>
+        <v>408</v>
       </c>
       <c r="C94">
-        <v>114157009</v>
+        <v>12731350</v>
       </c>
       <c r="D94">
-        <v>10</v>
+        <v>353</v>
       </c>
       <c r="E94">
-        <v>2379</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B95" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C95">
-        <v>28852785</v>
+        <v>114157009</v>
       </c>
       <c r="D95">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E95">
-        <v>466</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>362</v>
+        <v>466</v>
       </c>
       <c r="B96" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="C96">
-        <v>11131849</v>
+        <v>28852785</v>
       </c>
       <c r="D96">
-        <v>401</v>
+        <v>18</v>
       </c>
       <c r="E96">
-        <v>520</v>
+        <v>466</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>470</v>
+        <v>360</v>
       </c>
       <c r="B97" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="C97">
-        <v>1993675</v>
+        <v>11131849</v>
       </c>
       <c r="D97">
-        <v>384</v>
+        <v>401</v>
       </c>
       <c r="E97">
-        <v>1798</v>
+        <v>520</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B98" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C98">
         <v>6929090</v>
@@ -3497,10 +3497,10 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B99" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C99">
         <v>2738260</v>
@@ -3514,10 +3514,10 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B100" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C100">
         <v>70349380</v>
@@ -3534,7 +3534,7 @@
         <v>475</v>
       </c>
       <c r="B101" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C101">
         <v>28221254</v>
@@ -3552,7 +3552,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F564D1F-5353-4773-8092-AFA34B37A656}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C79A733-DC85-4334-805E-7663C2CF9387}">
   <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3585,10 +3585,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C2">
         <v>66070237</v>
@@ -3602,10 +3602,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C3">
         <v>22903474</v>
@@ -3619,10 +3619,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C4">
         <v>27379808</v>
@@ -3636,10 +3636,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C5">
         <v>13615125</v>
@@ -3653,10 +3653,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B6" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C6">
         <v>66070236</v>
@@ -3670,10 +3670,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C7">
         <v>67866097</v>
@@ -3687,10 +3687,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C8">
         <v>44587792</v>
@@ -3704,10 +3704,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C9">
         <v>51728993</v>
@@ -3721,10 +3721,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B10" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C10">
         <v>51728992</v>
@@ -3738,10 +3738,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B11" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C11">
         <v>66069789</v>
@@ -3755,10 +3755,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B12" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C12">
         <v>88962425</v>
@@ -3772,10 +3772,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C13">
         <v>84018137</v>
@@ -3789,10 +3789,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B14" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C14">
         <v>43105060</v>
@@ -3806,10 +3806,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B15" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C15">
         <v>111244822</v>
@@ -3823,10 +3823,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B16" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C16">
         <v>27379809</v>
@@ -3840,16 +3840,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B17" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C17">
         <v>72295496</v>
       </c>
       <c r="D17">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E17">
         <v>27990</v>
@@ -3857,10 +3857,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B18" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C18">
         <v>28980742</v>
@@ -3874,10 +3874,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B19" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C19">
         <v>67866096</v>
@@ -3891,10 +3891,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B20" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C20">
         <v>28199303</v>
@@ -3908,16 +3908,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B21" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C21">
         <v>72295495</v>
       </c>
       <c r="D21">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E21">
         <v>27990</v>
@@ -3925,10 +3925,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B22" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C22">
         <v>44950987</v>
@@ -3942,10 +3942,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B23" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C23">
         <v>110523995</v>
@@ -3959,10 +3959,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B24" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C24">
         <v>113254271</v>
@@ -3976,10 +3976,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B25" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C25">
         <v>50424584</v>
@@ -3993,10 +3993,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B26" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C26">
         <v>46015369</v>
@@ -4010,10 +4010,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B27" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C27">
         <v>28199302</v>
@@ -4027,10 +4027,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B28" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C28">
         <v>46015370</v>
@@ -4044,10 +4044,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B29" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C29">
         <v>53399132</v>
@@ -4061,10 +4061,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B30" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C30">
         <v>67866095</v>
@@ -4078,16 +4078,16 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B31" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C31">
         <v>35683124</v>
       </c>
       <c r="D31">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E31">
         <v>21990</v>
@@ -4095,10 +4095,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B32" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C32">
         <v>45997083</v>
@@ -4112,10 +4112,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B33" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C33">
         <v>67983222</v>
@@ -4129,10 +4129,10 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B34" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C34">
         <v>86123941</v>
@@ -4146,10 +4146,10 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B35" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C35">
         <v>86123936</v>
@@ -4163,10 +4163,10 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B36" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C36">
         <v>39769257</v>
@@ -4180,10 +4180,10 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B37" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C37">
         <v>87256267</v>
@@ -4197,10 +4197,10 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B38" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C38">
         <v>60418878</v>
@@ -4214,10 +4214,10 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B39" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C39">
         <v>111864727</v>
@@ -4231,10 +4231,10 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B40" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C40">
         <v>72288318</v>
@@ -4248,10 +4248,10 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B41" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C41">
         <v>30967922</v>
@@ -4265,10 +4265,10 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B42" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C42">
         <v>67865980</v>
@@ -4282,10 +4282,10 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B43" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C43">
         <v>66069790</v>
@@ -4299,10 +4299,10 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B44" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C44">
         <v>72288320</v>
@@ -4316,10 +4316,10 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B45" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C45">
         <v>111244812</v>
@@ -4333,10 +4333,10 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B46" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C46">
         <v>51728991</v>
@@ -4350,10 +4350,10 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B47" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C47">
         <v>45997084</v>
@@ -4367,10 +4367,10 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B48" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C48">
         <v>111864728</v>
@@ -4384,10 +4384,10 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B49" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C49">
         <v>80640174</v>
@@ -4401,10 +4401,10 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B50" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C50">
         <v>113254270</v>
@@ -4418,10 +4418,10 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B51" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C51">
         <v>48077005</v>
@@ -4435,10 +4435,10 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B52" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C52">
         <v>65373048</v>
@@ -4452,10 +4452,10 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B53" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C53">
         <v>111864107</v>
@@ -4469,10 +4469,10 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B54" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C54">
         <v>60418879</v>
@@ -4486,10 +4486,10 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B55" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C55">
         <v>44583543</v>
@@ -4503,10 +4503,10 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B56" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C56">
         <v>91604388</v>
@@ -4520,10 +4520,10 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B57" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C57">
         <v>51730036</v>
@@ -4537,10 +4537,10 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B58" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C58">
         <v>30967920</v>
@@ -4554,10 +4554,10 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B59" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C59">
         <v>36877787</v>
@@ -4571,16 +4571,16 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B60" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C60">
         <v>87222294</v>
       </c>
       <c r="D60">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E60">
         <v>27990</v>
@@ -4588,10 +4588,10 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B61" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C61">
         <v>40654195</v>
@@ -4605,10 +4605,10 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B62" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C62">
         <v>113254231</v>
@@ -4622,10 +4622,10 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B63" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C63">
         <v>24717029</v>
@@ -4639,10 +4639,10 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B64" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C64">
         <v>50423971</v>
@@ -4656,10 +4656,10 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B65" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C65">
         <v>114447592</v>
@@ -4673,10 +4673,10 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B66" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C66">
         <v>113254274</v>
@@ -4690,10 +4690,10 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B67" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C67">
         <v>44587795</v>
@@ -4707,10 +4707,10 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B68" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C68">
         <v>91052042</v>
@@ -4724,10 +4724,10 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B69" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C69">
         <v>36873567</v>
@@ -4741,10 +4741,10 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B70" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C70">
         <v>55919141</v>
@@ -4758,10 +4758,10 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B71" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C71">
         <v>61900894</v>
@@ -4775,10 +4775,10 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B72" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C72">
         <v>43819444</v>
@@ -4792,10 +4792,10 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B73" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C73">
         <v>44584413</v>
@@ -4809,10 +4809,10 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B74" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C74">
         <v>61914203</v>
@@ -4826,10 +4826,10 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B75" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C75">
         <v>110521531</v>
@@ -4843,10 +4843,10 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B76" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C76">
         <v>111244817</v>
@@ -4860,10 +4860,10 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B77" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C77">
         <v>113254269</v>
@@ -4877,10 +4877,10 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B78" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C78">
         <v>113254252</v>
@@ -4894,10 +4894,10 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B79" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C79">
         <v>84888191</v>
@@ -4911,10 +4911,10 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B80" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C80">
         <v>46595796</v>
@@ -4928,10 +4928,10 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B81" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C81">
         <v>113254237</v>
@@ -4945,10 +4945,10 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B82" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C82">
         <v>62556357</v>
@@ -4962,10 +4962,10 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B83" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C83">
         <v>30967930</v>
@@ -4979,10 +4979,10 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B84" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C84">
         <v>78487675</v>
@@ -4996,10 +4996,10 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B85" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C85">
         <v>113244919</v>
@@ -5013,10 +5013,10 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B86" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C86">
         <v>87256670</v>
@@ -5030,10 +5030,10 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B87" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C87">
         <v>26830014</v>
@@ -5047,10 +5047,10 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B88" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C88">
         <v>114447589</v>
@@ -5064,10 +5064,10 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B89" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C89">
         <v>75664919</v>
@@ -5081,10 +5081,10 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B90" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C90">
         <v>67865979</v>
@@ -5098,10 +5098,10 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B91" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C91">
         <v>44584206</v>
@@ -5115,10 +5115,10 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B92" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C92">
         <v>55917992</v>
@@ -5132,10 +5132,10 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B93" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C93">
         <v>61900895</v>
@@ -5149,10 +5149,10 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B94" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C94">
         <v>40652656</v>
@@ -5166,10 +5166,10 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B95" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C95">
         <v>47716114</v>
@@ -5183,10 +5183,10 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B96" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C96">
         <v>26977988</v>
@@ -5200,10 +5200,10 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B97" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C97">
         <v>44583544</v>
@@ -5217,10 +5217,10 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B98" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C98">
         <v>90680712</v>
@@ -5234,10 +5234,10 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B99" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C99">
         <v>63753745</v>
@@ -5251,10 +5251,10 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B100" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C100">
         <v>111889334</v>
@@ -5268,10 +5268,10 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B101" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C101">
         <v>61914204</v>
@@ -5289,7 +5289,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C391EF20-5EFB-4371-AE3F-E424B87A3073}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{182BFD4C-B2B5-49DB-88B5-09B90FE98DB3}">
   <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5322,10 +5322,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C2">
         <v>11561105</v>
@@ -5339,10 +5339,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C3">
         <v>72902996</v>
@@ -5356,10 +5356,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C4">
         <v>66372072</v>
@@ -5373,10 +5373,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C5">
         <v>53900351</v>
@@ -5390,7 +5390,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
@@ -5424,10 +5424,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C8">
         <v>10533604</v>
@@ -5441,10 +5441,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C9">
         <v>77227143</v>
@@ -5458,10 +5458,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C10">
         <v>7531395</v>
@@ -5475,10 +5475,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" t="s">
         <v>75</v>
-      </c>
-      <c r="B11" t="s">
-        <v>76</v>
       </c>
       <c r="C11">
         <v>31071277</v>
@@ -5492,10 +5492,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C12">
         <v>10818997</v>
@@ -5526,10 +5526,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B14" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C14">
         <v>10898471</v>
@@ -5543,10 +5543,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C15">
         <v>86814248</v>
@@ -5560,10 +5560,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C16">
         <v>72274882</v>
@@ -5577,10 +5577,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B17" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C17">
         <v>61294300</v>
@@ -5594,10 +5594,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C18">
         <v>42505837</v>
@@ -5611,10 +5611,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B19" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C19">
         <v>77482821</v>
@@ -5628,10 +5628,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B20" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C20">
         <v>20873873</v>
@@ -5645,10 +5645,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B21" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C21">
         <v>86808488</v>
@@ -5662,10 +5662,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" t="s">
         <v>72</v>
-      </c>
-      <c r="B22" t="s">
-        <v>73</v>
       </c>
       <c r="C22">
         <v>61934871</v>
@@ -5679,10 +5679,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B23" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C23">
         <v>37879586</v>
@@ -5696,10 +5696,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B24" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C24">
         <v>14612033</v>
@@ -5713,10 +5713,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B25" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C25">
         <v>72962110</v>
@@ -5730,10 +5730,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B26" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C26">
         <v>45561429</v>
@@ -5747,10 +5747,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" t="s">
         <v>69</v>
-      </c>
-      <c r="B27" t="s">
-        <v>70</v>
       </c>
       <c r="C27">
         <v>2737172</v>
@@ -5764,10 +5764,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B28" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C28">
         <v>60711065</v>
@@ -5781,10 +5781,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B29" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C29">
         <v>4426153</v>
@@ -5798,10 +5798,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B30" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C30">
         <v>72060550</v>
@@ -5815,10 +5815,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C31">
         <v>70799350</v>
@@ -5832,10 +5832,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B32" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C32">
         <v>33963390</v>
@@ -5849,10 +5849,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C33">
         <v>7531393</v>
@@ -5866,10 +5866,10 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B34" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C34">
         <v>10818990</v>
@@ -5883,10 +5883,10 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B35" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C35">
         <v>4282599</v>
@@ -5900,10 +5900,10 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B36" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C36">
         <v>4557086</v>
@@ -5917,10 +5917,10 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B37" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C37">
         <v>61982390</v>
@@ -5934,10 +5934,10 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B38" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C38">
         <v>2935299</v>
@@ -5951,10 +5951,10 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B39" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C39">
         <v>59582132</v>
@@ -5968,10 +5968,10 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B40" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C40">
         <v>16164286</v>
@@ -5985,7 +5985,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B41" t="s">
         <v>51</v>
@@ -6002,10 +6002,10 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B42" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C42">
         <v>17356605</v>
@@ -6019,10 +6019,10 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B43" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C43">
         <v>18939543</v>
@@ -6036,10 +6036,10 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B44" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C44">
         <v>70799449</v>
@@ -6053,10 +6053,10 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B45" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C45">
         <v>77162239</v>
@@ -6070,10 +6070,10 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B46" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C46">
         <v>12025659</v>
@@ -6087,10 +6087,10 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B47" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C47">
         <v>5567063</v>
@@ -6104,10 +6104,10 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B48" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C48">
         <v>59371074</v>
@@ -6121,16 +6121,16 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B49" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C49">
         <v>8911720</v>
       </c>
       <c r="D49">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="E49">
         <v>1990</v>
@@ -6138,10 +6138,10 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B50" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C50">
         <v>48319244</v>
@@ -6155,10 +6155,10 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B51" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C51">
         <v>3235894</v>
@@ -6172,10 +6172,10 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B52" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C52">
         <v>87428902</v>
@@ -6189,7 +6189,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B53" t="s">
         <v>51</v>
@@ -6206,10 +6206,10 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B54" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C54">
         <v>50122544</v>
@@ -6223,10 +6223,10 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B55" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C55">
         <v>64620891</v>
@@ -6240,10 +6240,10 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B56" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C56">
         <v>41286234</v>
@@ -6257,10 +6257,10 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B57" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C57">
         <v>56334321</v>
@@ -6274,10 +6274,10 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B58" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C58">
         <v>70463914</v>
@@ -6291,10 +6291,10 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B59" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C59">
         <v>9548575</v>
@@ -6308,10 +6308,10 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B60" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C60">
         <v>57684272</v>
@@ -6325,10 +6325,10 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B61" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C61">
         <v>94842638</v>
@@ -6342,10 +6342,10 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B62" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C62">
         <v>56876012</v>
@@ -6359,10 +6359,10 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B63" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C63">
         <v>30181016</v>
@@ -6376,7 +6376,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B64" t="s">
         <v>51</v>
@@ -6393,10 +6393,10 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B65" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C65">
         <v>75783218</v>
@@ -6410,10 +6410,10 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B66" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C66">
         <v>4715277</v>
@@ -6427,10 +6427,10 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B67" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C67">
         <v>5704050</v>
@@ -6444,10 +6444,10 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B68" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C68">
         <v>110871772</v>
@@ -6461,10 +6461,10 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B69" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C69">
         <v>37512009</v>
@@ -6478,10 +6478,10 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B70" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C70">
         <v>115777101</v>
@@ -6495,10 +6495,10 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B71" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C71">
         <v>13804790</v>
@@ -6512,10 +6512,10 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B72" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C72">
         <v>94564131</v>
@@ -6529,10 +6529,10 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B73" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C73">
         <v>3048085</v>
@@ -6546,10 +6546,10 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B74" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C74">
         <v>65996783</v>
@@ -6563,10 +6563,10 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B75" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C75">
         <v>60610358</v>
@@ -6580,10 +6580,10 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B76" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C76">
         <v>73133928</v>
@@ -6597,10 +6597,10 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B77" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C77">
         <v>16075723</v>
@@ -6614,10 +6614,10 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B78" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C78">
         <v>115489769</v>
@@ -6631,10 +6631,10 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B79" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C79">
         <v>12167132</v>
@@ -6648,10 +6648,10 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B80" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C80">
         <v>67845627</v>
@@ -6665,10 +6665,10 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B81" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C81">
         <v>54417582</v>
@@ -6682,10 +6682,10 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B82" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C82">
         <v>66858721</v>
@@ -6699,10 +6699,10 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B83" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C83">
         <v>51089826</v>
@@ -6719,10 +6719,10 @@
         <v>256</v>
       </c>
       <c r="B84" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C84">
-        <v>50946886</v>
+        <v>50946838</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -6733,13 +6733,13 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B85" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C85">
-        <v>50946838</v>
+        <v>50946886</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -6750,13 +6750,13 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B86" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C86">
-        <v>50946887</v>
+        <v>50946907</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -6767,13 +6767,13 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B87" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C87">
-        <v>50946907</v>
+        <v>50946887</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -6784,10 +6784,10 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B88" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C88">
         <v>50946872</v>
@@ -6801,13 +6801,13 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B89" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C89">
-        <v>50946844</v>
+        <v>50946846</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -6818,13 +6818,13 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B90" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C90">
-        <v>50946846</v>
+        <v>50946858</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -6835,13 +6835,13 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B91" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C91">
-        <v>50946890</v>
+        <v>50946898</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -6852,13 +6852,13 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B92" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C92">
-        <v>50946873</v>
+        <v>50946890</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -6869,13 +6869,13 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B93" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C93">
-        <v>50946858</v>
+        <v>50946844</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -6886,13 +6886,13 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B94" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C94">
-        <v>50946898</v>
+        <v>50946873</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -6903,10 +6903,10 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B95" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C95">
         <v>50946840</v>
@@ -6920,10 +6920,10 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B96" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C96">
         <v>50946893</v>
@@ -6937,10 +6937,10 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B97" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C97">
         <v>50946888</v>
@@ -6954,13 +6954,13 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B98" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C98">
-        <v>50946843</v>
+        <v>50946870</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -6971,13 +6971,13 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B99" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C99">
-        <v>50946870</v>
+        <v>50946843</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -6988,10 +6988,10 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B100" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C100">
         <v>115870462</v>
@@ -7005,10 +7005,10 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B101" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C101">
         <v>94886548</v>
@@ -7792,10 +7792,10 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
+        <v>472</v>
+      </c>
+      <c r="B45" t="s">
         <v>67</v>
-      </c>
-      <c r="B45" t="s">
-        <v>68</v>
       </c>
       <c r="C45">
         <v>19911636</v>
@@ -7809,10 +7809,10 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
+        <v>68</v>
+      </c>
+      <c r="B46" t="s">
         <v>69</v>
-      </c>
-      <c r="B46" t="s">
-        <v>70</v>
       </c>
       <c r="C46">
         <v>2737172</v>
@@ -7829,7 +7829,7 @@
         <v>9</v>
       </c>
       <c r="B47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C47">
         <v>30497938</v>
@@ -7843,10 +7843,10 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
+        <v>71</v>
+      </c>
+      <c r="B48" t="s">
         <v>72</v>
-      </c>
-      <c r="B48" t="s">
-        <v>73</v>
       </c>
       <c r="C48">
         <v>61934871</v>
@@ -7860,7 +7860,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B49" t="s">
         <v>53</v>
@@ -7877,10 +7877,10 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
+        <v>74</v>
+      </c>
+      <c r="B50" t="s">
         <v>75</v>
-      </c>
-      <c r="B50" t="s">
-        <v>76</v>
       </c>
       <c r="C50">
         <v>31071277</v>
@@ -7911,10 +7911,10 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
+        <v>76</v>
+      </c>
+      <c r="B52" t="s">
         <v>77</v>
-      </c>
-      <c r="B52" t="s">
-        <v>78</v>
       </c>
       <c r="C52">
         <v>8570396</v>
@@ -7962,7 +7962,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>79</v>
+        <v>473</v>
       </c>
       <c r="B55" t="s">
         <v>8</v>
@@ -7979,10 +7979,10 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B56" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C56">
         <v>33963390</v>
@@ -7996,7 +7996,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B57" t="s">
         <v>45</v>
@@ -8013,10 +8013,10 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B58" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C58">
         <v>40695768</v>
@@ -8030,7 +8030,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B59" t="s">
         <v>53</v>
@@ -8047,10 +8047,10 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B60" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C60">
         <v>11966421</v>
@@ -8064,10 +8064,10 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B61" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C61">
         <v>6448343</v>
@@ -8081,10 +8081,10 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B62" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C62">
         <v>57760226</v>
@@ -8098,7 +8098,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B63" t="s">
         <v>51</v>
@@ -8115,10 +8115,10 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B64" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C64">
         <v>17783265</v>
@@ -8132,10 +8132,10 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B65" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C65">
         <v>60641694</v>
@@ -8149,10 +8149,10 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B66" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C66">
         <v>4282599</v>
@@ -8166,10 +8166,10 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B67" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C67">
         <v>59582132</v>
@@ -8183,10 +8183,10 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B68" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C68">
         <v>4584427</v>
@@ -8217,10 +8217,10 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B70" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C70">
         <v>27790106</v>
@@ -8234,10 +8234,10 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B71" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C71">
         <v>40695769</v>
@@ -8254,7 +8254,7 @@
         <v>36</v>
       </c>
       <c r="B72" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C72">
         <v>49615436</v>
@@ -8302,10 +8302,10 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B75" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C75">
         <v>70408391</v>
@@ -8319,10 +8319,10 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B76" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C76">
         <v>39677425</v>
@@ -8336,10 +8336,10 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B77" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C77">
         <v>32956363</v>
@@ -8353,7 +8353,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B78" t="s">
         <v>22</v>
@@ -8370,10 +8370,10 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B79" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C79">
         <v>69203891</v>
@@ -8387,10 +8387,10 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B80" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C80">
         <v>64604364</v>
@@ -8421,7 +8421,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B82" t="s">
         <v>53</v>
@@ -8438,10 +8438,10 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B83" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C83">
         <v>3595159</v>
@@ -8472,10 +8472,10 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B85" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C85">
         <v>70413077</v>
@@ -8489,10 +8489,10 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B86" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C86">
         <v>70564608</v>
@@ -8506,10 +8506,10 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B87" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C87">
         <v>36176145</v>
@@ -8523,10 +8523,10 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B88" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C88">
         <v>15146943</v>
@@ -8540,10 +8540,10 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B89" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C89">
         <v>45584098</v>
@@ -8560,7 +8560,7 @@
         <v>36</v>
       </c>
       <c r="B90" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C90">
         <v>36168273</v>
@@ -8591,7 +8591,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B92" t="s">
         <v>32</v>
@@ -8608,10 +8608,10 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B93" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C93">
         <v>10585894</v>
@@ -8625,10 +8625,10 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B94" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C94">
         <v>21277143</v>
@@ -8642,7 +8642,7 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C95">
         <v>93225616</v>
@@ -8656,7 +8656,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B96" t="s">
         <v>53</v>
@@ -8673,7 +8673,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B97" t="s">
         <v>51</v>
@@ -8690,10 +8690,10 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B98" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C98">
         <v>58087670</v>
@@ -8707,10 +8707,10 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B99" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C99">
         <v>37879586</v>
@@ -8724,10 +8724,10 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B100" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C100">
         <v>13538769</v>
@@ -8741,10 +8741,10 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B101" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C101">
         <v>83744659</v>
